--- a/CVSS_Demo - Final.xlsx
+++ b/CVSS_Demo - Final.xlsx
@@ -310,10 +310,10 @@
     <t>R_RC</t>
   </si>
   <si>
-    <t>Final score Inc Env</t>
-  </si>
-  <si>
     <t>Final Risk</t>
+  </si>
+  <si>
+    <t>Final score Inc Temp</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
     <col min="27" max="27" width="7.5703125" style="5" customWidth="1"/>
     <col min="28" max="28" width="1.140625" style="6" customWidth="1"/>
     <col min="29" max="30" width="1.28515625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="16.85546875" style="6" customWidth="1"/>
+    <col min="31" max="31" width="19.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>92</v>
       </c>
       <c r="AE1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -868,22 +868,22 @@
         <v>46</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M2" s="5">
         <f>IF($B2="Network (N)", 0.85, 1) *
@@ -925,19 +925,19 @@
         <f>IF($G2="None (N)", 0, 1) *
  IF($G2="Low (L)", 0.22, 1) *
  IF($G2="High (H)", 0.56, 1)</f>
-        <v>0.56000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="U2" s="5">
         <f>IF($H2="None (N)", 0, 1) *
  IF($H2="Low (L)", 0.22, 1) *
  IF($H2="High (H)", 0.56, 1)</f>
-        <v>0.56000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="V2" s="5">
         <f>IF($I2="None (N)", 0, 1) *
  IF($I2="Low (L)", 0.22, 1) *
  IF($I2="High (H)", 0.56, 1)</f>
-        <v>0.56000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="W2" s="5">
         <f>8.22 * $M2 * $N2 * $O2 * $R2</f>
@@ -945,25 +945,25 @@
       </c>
       <c r="X2" s="5">
         <f>(1 - ((1 - $T2) * (1 - $U2) * (1 - $V2)))</f>
-        <v>0.91481600000000007</v>
+        <v>0.52544799999999992</v>
       </c>
       <c r="Y2" s="5">
         <f>IF($F2="Unchanged (U)",
   $S2 * $X2,
   $S2 * ($X2 - 0.029) -
    3.25 * POWER($X2 - 0.02, 15))</f>
-        <v>5.8731187200000008</v>
+        <v>3.3733761599999994</v>
       </c>
       <c r="Z2" s="5">
         <f>IF($Y2&lt;=0, 0,
   IF($F2="Unchanged (U)",
     MIN($W2 + $Y2, 10),
     MIN(($W2 + $Y2) * 1.08, 10)))</f>
-        <v>9.760161495000002</v>
+        <v>7.2604189349999997</v>
       </c>
       <c r="AA2" s="5">
         <f>ROUNDUP(($Z2*10)/10, 1)</f>
-        <v>9.7999999999999989</v>
+        <v>7.3</v>
       </c>
       <c r="AB2" s="6">
         <f>IF($J2="Not Defined (X)", 1, 1) *
@@ -971,7 +971,7 @@
  IF($J2="Functional (F)", 0.97, 1) *
  IF($J2="Proof Of Concept (P)", 0.94, 1) *
  IF($J2="Unproven (U)", 0.91, 1)</f>
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="6">
         <f>IF($K2="Not Defined (X)", 1, 1) *
@@ -986,11 +986,11 @@
  IF($L2="Confirmed ( C )", 1, 1) *
  IF($L2="Reasonable ( R )", 0.96, 1) *
  IF($L2="Unknown (U)", 0.92, 1)</f>
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="6">
         <f>ROUNDUP($AA2*$AB2*$AC2*$AD2,1)</f>
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="str">
         <f>IF($AE2&gt;=9,"CRITICAL",IF($AE2&gt;=7,"HIGH",IF($AE2&gt;=4,"Medium","Low")))</f>
